--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem4/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem4/123/word_level_predictions_123.xlsx
@@ -2062,780 +2062,780 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" s="2" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E32" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K32" t="b">
-        <v>1</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" s="2" t="inlineStr">
         <is>
           <t>can</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I33" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K33" t="b">
-        <v>1</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" s="2" t="inlineStr">
         <is>
           <t>reset</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K34" t="b">
-        <v>1</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I35" t="b">
-        <v>1</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K35" t="b">
-        <v>1</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" s="2" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K36" t="b">
-        <v>1</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D37" t="n">
+      <c r="D37" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I37" t="b">
-        <v>1</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K37" t="b">
-        <v>1</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I38" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K38" t="b">
-        <v>1</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr">
         <is>
           <t>Remote</t>
         </is>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K39" t="b">
-        <v>1</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" s="2" t="inlineStr">
         <is>
           <t>Controller</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I40" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K40" t="b">
-        <v>1</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" s="2" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I41" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K41" t="b">
-        <v>1</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" s="2" t="inlineStr">
         <is>
           <t>after</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I42" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K42" t="b">
-        <v>1</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr">
         <is>
           <t>cancelling</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K43" t="b">
-        <v>1</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" s="2" t="inlineStr">
         <is>
           <t>if</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" s="2" t="inlineStr">
         <is>
           <t>necessary</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E46" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F46" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K46" t="b">
-        <v>1</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="G46" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3570,104 +3570,104 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
+      <c r="A61" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C61" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="inlineStr">
+      <c r="D61" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F61" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" t="inlineStr">
+      <c r="G61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I61" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr">
+      <c r="I61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K61" t="b">
-        <v>1</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>4</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Stuck</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I62" t="b">
-        <v>1</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K62" t="b">
-        <v>1</v>
-      </c>
-      <c r="L62" t="inlineStr">
+      <c r="I62" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K62" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L62" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -3709,11 +3709,11 @@
         </is>
       </c>
       <c r="I63" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K63" s="2" t="b">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G64" s="2" t="b">
@@ -3761,11 +3761,11 @@
         </is>
       </c>
       <c r="I64" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K64" s="2" t="b">
@@ -3778,312 +3778,312 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
+      <c r="A65" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C65" s="2" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D65" t="n">
+      <c r="D65" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="E65" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I65" t="b">
-        <v>1</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K65" t="b">
-        <v>1</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I65" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K65" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L65" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
+      <c r="A66" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C66" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D66" t="n">
+      <c r="D66" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I66" t="b">
-        <v>1</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K66" t="b">
-        <v>1</v>
-      </c>
-      <c r="L66" t="inlineStr">
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L66" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
+      <c r="A67" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C67" s="2" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D67" t="n">
+      <c r="D67" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I67" t="b">
-        <v>1</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K67" t="b">
-        <v>1</v>
-      </c>
-      <c r="L67" t="inlineStr">
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I67" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K67" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L67" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
+      <c r="A68" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C68" s="2" t="inlineStr">
         <is>
           <t>if</t>
         </is>
       </c>
-      <c r="D68" t="n">
+      <c r="D68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I68" t="b">
-        <v>1</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K68" t="b">
-        <v>1</v>
-      </c>
-      <c r="L68" t="inlineStr">
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L68" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
+      <c r="A69" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C69" s="2" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D69" t="n">
+      <c r="D69" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I69" t="b">
-        <v>1</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K69" t="b">
-        <v>1</v>
-      </c>
-      <c r="L69" t="inlineStr">
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L69" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
+      <c r="A70" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C70" s="2" t="inlineStr">
         <is>
           <t>persists</t>
         </is>
       </c>
-      <c r="D70" t="n">
+      <c r="D70" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="E70" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="F70" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I70" t="b">
-        <v>1</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K70" t="b">
-        <v>1</v>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="G70" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I70" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K70" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L70" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="F81" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G81" s="2" t="b">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -5465,7 +5465,7 @@
       </c>
       <c r="F97" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G97" s="2" t="b">
@@ -5489,7 +5489,7 @@
       </c>
       <c r="L97" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="F98" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G98" s="2" t="b">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="L98" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -6898,156 +6898,156 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
+      <c r="A125" t="n">
         <v>8</v>
       </c>
-      <c r="B125" s="2" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C125" s="2" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D125" s="2" t="n">
+      <c r="D125" t="n">
         <v>8</v>
       </c>
-      <c r="E125" s="2" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F125" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G125" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L125" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G125" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I125" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="n">
+      <c r="A126" t="n">
         <v>8</v>
       </c>
-      <c r="B126" s="2" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C126" s="2" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D126" s="2" t="n">
+      <c r="D126" t="n">
         <v>9</v>
       </c>
-      <c r="E126" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F126" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G126" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J126" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L126" s="2" t="inlineStr">
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G126" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I126" t="b">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K126" t="b">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n">
+      <c r="A127" t="n">
         <v>8</v>
       </c>
-      <c r="B127" s="2" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C127" s="2" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D127" s="2" t="n">
+      <c r="D127" t="n">
         <v>10</v>
       </c>
-      <c r="E127" s="2" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F127" s="2" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G127" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J127" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L127" s="2" t="inlineStr">
+      <c r="G127" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I127" t="b">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K127" t="b">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7314,782 +7314,782 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
+      <c r="A133" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B133" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C133" s="2" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D133" t="n">
+      <c r="D133" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="E133" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="F133" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G133" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J133" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L133" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E134" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F134" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G134" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J134" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B135" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C135" s="2" t="inlineStr">
+        <is>
+          <t>USB</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E135" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F135" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G135" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J135" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L135" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>connection</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E136" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F136" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G136" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J136" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B137" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C137" s="2" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E137" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F137" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G137" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H137" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I137" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J137" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K137" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L137" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="inlineStr">
+        <is>
+          <t>aircraft</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E138" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F138" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G138" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H138" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I138" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J138" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K138" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L138" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B139" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C139" s="2" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E139" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G133" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I133" t="b">
-        <v>1</v>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K133" t="b">
-        <v>1</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
+      <c r="F139" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G139" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I139" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J139" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K139" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L139" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B140" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D134" t="n">
-        <v>5</v>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G134" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I134" t="b">
-        <v>1</v>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K134" t="b">
-        <v>1</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
+      <c r="C140" s="2" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E140" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F140" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G140" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J140" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L140" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B141" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>USB</t>
-        </is>
-      </c>
-      <c r="D135" t="n">
-        <v>6</v>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G135" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I135" t="b">
-        <v>1</v>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K135" t="b">
-        <v>1</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
+      <c r="C141" s="2" t="inlineStr">
+        <is>
+          <t>Support</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E141" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F141" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G141" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J141" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L141" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B142" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>connection</t>
-        </is>
-      </c>
-      <c r="D136" t="n">
-        <v>7</v>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G136" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I136" t="b">
-        <v>1</v>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K136" t="b">
-        <v>1</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
+      <c r="C142" s="2" t="inlineStr">
+        <is>
+          <t>if</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E142" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F142" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G142" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J142" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L142" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B143" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="D137" t="n">
-        <v>8</v>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G137" t="b">
-        <v>1</v>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I137" t="b">
-        <v>1</v>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K137" t="b">
-        <v>1</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
+      <c r="C143" s="2" t="inlineStr">
+        <is>
+          <t>this</t>
+        </is>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J143" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L143" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B144" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>aircraft</t>
-        </is>
-      </c>
-      <c r="D138" t="n">
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E144" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F144" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G144" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J144" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L144" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="B145" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C145" s="2" t="inlineStr">
+        <is>
+          <t>persists</t>
+        </is>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E145" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F145" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G145" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J145" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L145" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E146" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F146" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G146" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J146" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L146" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B147" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C147" s="2" t="inlineStr">
+        <is>
+          <t>restarting</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E147" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G138" t="b">
-        <v>1</v>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I138" t="b">
-        <v>1</v>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K138" t="b">
-        <v>1</v>
-      </c>
-      <c r="L138" t="inlineStr">
+      <c r="F147" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G147" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J147" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L147" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>9</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="D139" t="n">
-        <v>10</v>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G139" t="b">
-        <v>1</v>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I139" t="b">
-        <v>1</v>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K139" t="b">
-        <v>1</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>9</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>DJI</t>
-        </is>
-      </c>
-      <c r="D140" t="n">
-        <v>11</v>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G140" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I140" t="b">
-        <v>1</v>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K140" t="b">
-        <v>1</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>9</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Support</t>
-        </is>
-      </c>
-      <c r="D141" t="n">
-        <v>12</v>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G141" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I141" t="b">
-        <v>1</v>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K141" t="b">
-        <v>1</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>9</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="D142" t="n">
-        <v>13</v>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G142" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" t="b">
-        <v>1</v>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K142" t="b">
-        <v>1</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>9</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>this</t>
-        </is>
-      </c>
-      <c r="D143" t="n">
-        <v>14</v>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" t="b">
-        <v>1</v>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K143" t="b">
-        <v>1</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>9</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="D144" t="n">
-        <v>15</v>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G144" t="b">
-        <v>1</v>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I144" t="b">
-        <v>1</v>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K144" t="b">
-        <v>1</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>9</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>persists</t>
-        </is>
-      </c>
-      <c r="D145" t="n">
-        <v>16</v>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G145" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I145" t="b">
-        <v>1</v>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K145" t="b">
-        <v>1</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>9</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>after</t>
-        </is>
-      </c>
-      <c r="D146" t="n">
-        <v>17</v>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G146" t="b">
-        <v>1</v>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I146" t="b">
-        <v>1</v>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K146" t="b">
-        <v>1</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>9</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>restarting</t>
-        </is>
-      </c>
-      <c r="D147" t="n">
-        <v>18</v>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G147" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I147" t="b">
-        <v>1</v>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K147" t="b">
-        <v>1</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10457,7 +10457,7 @@
       </c>
       <c r="F193" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G193" s="2" t="b">
@@ -10481,7 +10481,7 @@
       </c>
       <c r="L193" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="F194" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G194" s="2" t="b">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="L194" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -10746,364 +10746,364 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="n">
+      <c r="A199" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B199" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
+      <c r="C199" s="2" t="inlineStr">
         <is>
           <t>Ensure</t>
         </is>
       </c>
-      <c r="D199" t="n">
+      <c r="D199" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E199" t="inlineStr">
+      <c r="E199" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G199" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I199" t="b">
-        <v>1</v>
-      </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K199" t="b">
-        <v>1</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F199" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G199" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J199" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L199" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="n">
+      <c r="A200" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B200" t="inlineStr">
+      <c r="B200" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
+      <c r="C200" s="2" t="inlineStr">
         <is>
           <t>you</t>
         </is>
       </c>
-      <c r="D200" t="n">
+      <c r="D200" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G200" t="b">
-        <v>1</v>
-      </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I200" t="b">
-        <v>1</v>
-      </c>
-      <c r="J200" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K200" t="b">
-        <v>1</v>
-      </c>
-      <c r="L200" t="inlineStr">
+      <c r="E200" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F200" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G200" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H200" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I200" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J200" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K200" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L200" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="n">
+      <c r="A201" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B201" t="inlineStr">
+      <c r="B201" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr">
+      <c r="C201" s="2" t="inlineStr">
         <is>
           <t>have</t>
         </is>
       </c>
-      <c r="D201" t="n">
+      <c r="D201" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G201" t="b">
-        <v>1</v>
-      </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I201" t="b">
-        <v>1</v>
-      </c>
-      <c r="J201" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K201" t="b">
-        <v>1</v>
-      </c>
-      <c r="L201" t="inlineStr">
+      <c r="E201" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F201" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G201" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H201" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I201" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J201" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K201" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L201" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="n">
+      <c r="A202" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B202" t="inlineStr">
+      <c r="B202" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr">
+      <c r="C202" s="2" t="inlineStr">
         <is>
           <t>obtained</t>
         </is>
       </c>
-      <c r="D202" t="n">
+      <c r="D202" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G202" t="b">
-        <v>1</v>
-      </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I202" t="b">
-        <v>1</v>
-      </c>
-      <c r="J202" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K202" t="b">
-        <v>1</v>
-      </c>
-      <c r="L202" t="inlineStr">
+      <c r="E202" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F202" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G202" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H202" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I202" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J202" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K202" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L202" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="n">
+      <c r="A203" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B203" t="inlineStr">
+      <c r="B203" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr">
+      <c r="C203" s="2" t="inlineStr">
         <is>
           <t>proper</t>
         </is>
       </c>
-      <c r="D203" t="n">
+      <c r="D203" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G203" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I203" t="b">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K203" t="b">
-        <v>1</v>
-      </c>
-      <c r="L203" t="inlineStr">
+      <c r="E203" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F203" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G203" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I203" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J203" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K203" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L203" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="n">
+      <c r="A204" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B204" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C204" s="2" t="inlineStr">
         <is>
           <t>airspace</t>
         </is>
       </c>
-      <c r="D204" t="n">
+      <c r="D204" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G204" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I204" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K204" t="b">
-        <v>1</v>
-      </c>
-      <c r="L204" t="inlineStr">
+      <c r="E204" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F204" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J204" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L204" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="n">
+      <c r="A205" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B205" t="inlineStr">
+      <c r="B205" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
+      <c r="C205" s="2" t="inlineStr">
         <is>
           <t>authorization</t>
         </is>
       </c>
-      <c r="D205" t="n">
+      <c r="D205" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E205" t="inlineStr">
+      <c r="E205" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
+      <c r="F205" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G205" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I205" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K205" t="b">
-        <v>1</v>
-      </c>
-      <c r="L205" t="inlineStr">
+      <c r="G205" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J205" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L205" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12514,364 +12514,364 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2" t="n">
+      <c r="A233" t="n">
         <v>15</v>
       </c>
-      <c r="B233" s="2" t="inlineStr">
+      <c r="B233" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C233" s="2" t="inlineStr">
+      <c r="C233" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D233" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E233" s="2" t="inlineStr">
+      <c r="D233" t="n">
+        <v>0</v>
+      </c>
+      <c r="E233" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F233" s="2" t="inlineStr">
+      <c r="F233" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G233" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" s="2" t="inlineStr">
+      <c r="G233" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L233" s="2" t="inlineStr">
+      <c r="I233" t="b">
+        <v>1</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K233" t="b">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="n">
+      <c r="A234" t="n">
         <v>15</v>
       </c>
-      <c r="B234" s="2" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C234" s="2" t="inlineStr">
+      <c r="C234" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D234" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E234" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F234" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G234" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" s="2" t="inlineStr">
+      <c r="D234" t="n">
+        <v>1</v>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G234" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L234" s="2" t="inlineStr">
+      <c r="I234" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K234" t="b">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="n">
+      <c r="A235" t="n">
         <v>15</v>
       </c>
-      <c r="B235" s="2" t="inlineStr">
+      <c r="B235" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C235" s="2" t="inlineStr">
+      <c r="C235" t="inlineStr">
         <is>
           <t>Attitude</t>
         </is>
       </c>
-      <c r="D235" s="2" t="n">
+      <c r="D235" t="n">
         <v>2</v>
       </c>
-      <c r="E235" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F235" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" s="2" t="inlineStr">
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L235" s="2" t="inlineStr">
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2" t="n">
+      <c r="A236" t="n">
         <v>15</v>
       </c>
-      <c r="B236" s="2" t="inlineStr">
+      <c r="B236" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C236" s="2" t="inlineStr">
+      <c r="C236" t="inlineStr">
         <is>
           <t>mode</t>
         </is>
       </c>
-      <c r="D236" s="2" t="n">
+      <c r="D236" t="n">
         <v>3</v>
       </c>
-      <c r="E236" s="2" t="inlineStr">
+      <c r="E236" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F236" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="2" t="n">
+      <c r="A237" t="n">
         <v>15</v>
       </c>
-      <c r="B237" s="2" t="inlineStr">
+      <c r="B237" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C237" s="2" t="inlineStr">
+      <c r="C237" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D237" s="2" t="n">
+      <c r="D237" t="n">
         <v>4</v>
       </c>
-      <c r="E237" s="2" t="inlineStr">
+      <c r="E237" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F237" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="2" t="n">
+      <c r="A238" t="n">
         <v>15</v>
       </c>
-      <c r="B238" s="2" t="inlineStr">
+      <c r="B238" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C238" s="2" t="inlineStr">
+      <c r="C238" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D238" s="2" t="n">
+      <c r="D238" t="n">
         <v>5</v>
       </c>
-      <c r="E238" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F238" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G238" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" s="2" t="inlineStr">
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G238" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L238" s="2" t="inlineStr">
+      <c r="I238" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K238" t="b">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="2" t="n">
+      <c r="A239" t="n">
         <v>15</v>
       </c>
-      <c r="B239" s="2" t="inlineStr">
+      <c r="B239" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C239" s="2" t="inlineStr">
+      <c r="C239" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D239" s="2" t="n">
+      <c r="D239" t="n">
         <v>6</v>
       </c>
-      <c r="E239" s="2" t="inlineStr">
+      <c r="E239" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F239" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" s="2" t="inlineStr">
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G239" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L239" s="2" t="inlineStr">
+      <c r="I239" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K239" t="b">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -12913,11 +12913,11 @@
         </is>
       </c>
       <c r="I240" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J240" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K240" s="2" t="b">
@@ -12965,11 +12965,11 @@
         </is>
       </c>
       <c r="I241" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J241" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K241" s="2" t="b">
@@ -13005,7 +13005,7 @@
       </c>
       <c r="F242" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G242" s="2" t="b">
@@ -13017,11 +13017,11 @@
         </is>
       </c>
       <c r="I242" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J242" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K242" s="2" t="b">
@@ -13029,7 +13029,7 @@
       </c>
       <c r="L242" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13265,7 +13265,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G247" t="b">
@@ -13289,7 +13289,7 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -13329,11 +13329,11 @@
         </is>
       </c>
       <c r="I248" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J248" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K248" s="2" t="b">
@@ -13381,11 +13381,11 @@
         </is>
       </c>
       <c r="I249" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J249" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K249" s="2" t="b">
@@ -13433,11 +13433,11 @@
         </is>
       </c>
       <c r="I250" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J250" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K250" s="2" t="b">
@@ -13473,7 +13473,7 @@
       </c>
       <c r="F251" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G251" s="2" t="b">
@@ -13485,11 +13485,11 @@
         </is>
       </c>
       <c r="I251" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J251" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K251" s="2" t="b">
@@ -13497,7 +13497,7 @@
       </c>
       <c r="L251" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13525,7 +13525,7 @@
       </c>
       <c r="F252" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G252" s="2" t="b">
@@ -13537,11 +13537,11 @@
         </is>
       </c>
       <c r="I252" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J252" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K252" s="2" t="b">
@@ -13549,7 +13549,7 @@
       </c>
       <c r="L252" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="F253" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G253" s="2" t="b">
@@ -13589,11 +13589,11 @@
         </is>
       </c>
       <c r="I253" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J253" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K253" s="2" t="b">
@@ -13601,7 +13601,7 @@
       </c>
       <c r="L253" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="F254" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G254" s="2" t="b">
@@ -13641,11 +13641,11 @@
         </is>
       </c>
       <c r="I254" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J254" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K254" s="2" t="b">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="L254" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13681,7 +13681,7 @@
       </c>
       <c r="F255" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G255" s="2" t="b">
@@ -13693,11 +13693,11 @@
         </is>
       </c>
       <c r="I255" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J255" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K255" s="2" t="b">
@@ -13705,7 +13705,7 @@
       </c>
       <c r="L255" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="F256" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G256" s="2" t="b">
@@ -13745,11 +13745,11 @@
         </is>
       </c>
       <c r="I256" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J256" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K256" s="2" t="b">
@@ -13757,7 +13757,7 @@
       </c>
       <c r="L256" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13797,11 +13797,11 @@
         </is>
       </c>
       <c r="I257" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J257" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K257" s="2" t="b">
@@ -13814,730 +13814,730 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="2" t="n">
+      <c r="A258" t="n">
         <v>16</v>
       </c>
-      <c r="B258" s="2" t="inlineStr">
+      <c r="B258" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C258" s="2" t="inlineStr">
+      <c r="C258" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D258" s="2" t="n">
+      <c r="D258" t="n">
         <v>14</v>
       </c>
-      <c r="E258" s="2" t="inlineStr">
+      <c r="E258" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F258" s="2" t="inlineStr">
+      <c r="F258" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G258" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H258" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I258" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J258" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K258" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L258" s="2" t="inlineStr">
+      <c r="G258" t="b">
+        <v>1</v>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I258" t="b">
+        <v>1</v>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K258" t="b">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="2" t="n">
+      <c r="A259" t="n">
         <v>16</v>
       </c>
-      <c r="B259" s="2" t="inlineStr">
+      <c r="B259" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C259" s="2" t="inlineStr">
+      <c r="C259" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D259" s="2" t="n">
+      <c r="D259" t="n">
         <v>15</v>
       </c>
-      <c r="E259" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F259" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G259" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H259" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I259" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J259" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K259" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L259" s="2" t="inlineStr">
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G259" t="b">
+        <v>1</v>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I259" t="b">
+        <v>1</v>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K259" t="b">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="2" t="n">
+      <c r="A260" t="n">
         <v>16</v>
       </c>
-      <c r="B260" s="2" t="inlineStr">
+      <c r="B260" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C260" s="2" t="inlineStr">
+      <c r="C260" t="inlineStr">
         <is>
           <t>make</t>
         </is>
       </c>
-      <c r="D260" s="2" t="n">
+      <c r="D260" t="n">
         <v>16</v>
       </c>
-      <c r="E260" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F260" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G260" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H260" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I260" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J260" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K260" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L260" s="2" t="inlineStr">
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G260" t="b">
+        <v>1</v>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I260" t="b">
+        <v>1</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K260" t="b">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="2" t="n">
+      <c r="A261" t="n">
         <v>16</v>
       </c>
-      <c r="B261" s="2" t="inlineStr">
+      <c r="B261" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C261" s="2" t="inlineStr">
+      <c r="C261" t="inlineStr">
         <is>
           <t>sure</t>
         </is>
       </c>
-      <c r="D261" s="2" t="n">
+      <c r="D261" t="n">
         <v>17</v>
       </c>
-      <c r="E261" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F261" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G261" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I261" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J261" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K261" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L261" s="2" t="inlineStr">
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G261" t="b">
+        <v>1</v>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I261" t="b">
+        <v>1</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K261" t="b">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="2" t="n">
+      <c r="A262" t="n">
         <v>16</v>
       </c>
-      <c r="B262" s="2" t="inlineStr">
+      <c r="B262" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C262" s="2" t="inlineStr">
+      <c r="C262" t="inlineStr">
         <is>
           <t>you</t>
         </is>
       </c>
-      <c r="D262" s="2" t="n">
+      <c r="D262" t="n">
         <v>18</v>
       </c>
-      <c r="E262" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F262" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G262" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I262" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J262" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K262" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L262" s="2" t="inlineStr">
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G262" t="b">
+        <v>1</v>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I262" t="b">
+        <v>1</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K262" t="b">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="2" t="n">
+      <c r="A263" t="n">
         <v>16</v>
       </c>
-      <c r="B263" s="2" t="inlineStr">
+      <c r="B263" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C263" s="2" t="inlineStr">
+      <c r="C263" t="inlineStr">
         <is>
           <t>have</t>
         </is>
       </c>
-      <c r="D263" s="2" t="n">
+      <c r="D263" t="n">
         <v>19</v>
       </c>
-      <c r="E263" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F263" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G263" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H263" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I263" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J263" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K263" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L263" s="2" t="inlineStr">
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G263" t="b">
+        <v>1</v>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I263" t="b">
+        <v>1</v>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K263" t="b">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="2" t="n">
+      <c r="A264" t="n">
         <v>16</v>
       </c>
-      <c r="B264" s="2" t="inlineStr">
+      <c r="B264" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C264" s="2" t="inlineStr">
+      <c r="C264" t="inlineStr">
         <is>
           <t>obtained</t>
         </is>
       </c>
-      <c r="D264" s="2" t="n">
+      <c r="D264" t="n">
         <v>20</v>
       </c>
-      <c r="E264" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F264" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G264" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I264" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J264" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K264" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L264" s="2" t="inlineStr">
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G264" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I264" t="b">
+        <v>1</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K264" t="b">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="2" t="n">
+      <c r="A265" t="n">
         <v>16</v>
       </c>
-      <c r="B265" s="2" t="inlineStr">
+      <c r="B265" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C265" s="2" t="inlineStr">
+      <c r="C265" t="inlineStr">
         <is>
           <t>proper</t>
         </is>
       </c>
-      <c r="D265" s="2" t="n">
+      <c r="D265" t="n">
         <v>21</v>
       </c>
-      <c r="E265" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F265" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G265" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I265" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J265" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K265" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L265" s="2" t="inlineStr">
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G265" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I265" t="b">
+        <v>1</v>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K265" t="b">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="2" t="n">
+      <c r="A266" t="n">
         <v>16</v>
       </c>
-      <c r="B266" s="2" t="inlineStr">
+      <c r="B266" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C266" s="2" t="inlineStr">
+      <c r="C266" t="inlineStr">
         <is>
           <t>authorization</t>
         </is>
       </c>
-      <c r="D266" s="2" t="n">
+      <c r="D266" t="n">
         <v>22</v>
       </c>
-      <c r="E266" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F266" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G266" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I266" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J266" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K266" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L266" s="2" t="inlineStr">
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G266" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I266" t="b">
+        <v>1</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K266" t="b">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="2" t="n">
+      <c r="A267" t="n">
         <v>16</v>
       </c>
-      <c r="B267" s="2" t="inlineStr">
+      <c r="B267" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C267" s="2" t="inlineStr">
+      <c r="C267" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D267" s="2" t="n">
+      <c r="D267" t="n">
         <v>23</v>
       </c>
-      <c r="E267" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F267" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G267" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H267" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I267" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J267" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K267" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L267" s="2" t="inlineStr">
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G267" t="b">
+        <v>1</v>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I267" t="b">
+        <v>1</v>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K267" t="b">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="2" t="n">
+      <c r="A268" t="n">
         <v>16</v>
       </c>
-      <c r="B268" s="2" t="inlineStr">
+      <c r="B268" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C268" s="2" t="inlineStr">
+      <c r="C268" t="inlineStr">
         <is>
           <t>fly</t>
         </is>
       </c>
-      <c r="D268" s="2" t="n">
+      <c r="D268" t="n">
         <v>24</v>
       </c>
-      <c r="E268" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F268" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G268" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J268" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L268" s="2" t="inlineStr">
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G268" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I268" t="b">
+        <v>1</v>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K268" t="b">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="2" t="n">
+      <c r="A269" t="n">
         <v>16</v>
       </c>
-      <c r="B269" s="2" t="inlineStr">
+      <c r="B269" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C269" s="2" t="inlineStr">
+      <c r="C269" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D269" s="2" t="n">
+      <c r="D269" t="n">
         <v>25</v>
       </c>
-      <c r="E269" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F269" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G269" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H269" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I269" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J269" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K269" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L269" s="2" t="inlineStr">
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G269" t="b">
+        <v>1</v>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I269" t="b">
+        <v>1</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K269" t="b">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="2" t="n">
+      <c r="A270" t="n">
         <v>16</v>
       </c>
-      <c r="B270" s="2" t="inlineStr">
+      <c r="B270" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C270" s="2" t="inlineStr">
+      <c r="C270" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D270" s="2" t="n">
+      <c r="D270" t="n">
         <v>26</v>
       </c>
-      <c r="E270" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F270" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G270" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J270" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L270" s="2" t="inlineStr">
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G270" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I270" t="b">
+        <v>1</v>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K270" t="b">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="2" t="n">
+      <c r="A271" t="n">
         <v>16</v>
       </c>
-      <c r="B271" s="2" t="inlineStr">
+      <c r="B271" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C271" s="2" t="inlineStr">
+      <c r="C271" t="inlineStr">
         <is>
           <t>airspace</t>
         </is>
       </c>
-      <c r="D271" s="2" t="n">
+      <c r="D271" t="n">
         <v>27</v>
       </c>
-      <c r="E271" s="2" t="inlineStr">
+      <c r="E271" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F271" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G271" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H271" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I271" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J271" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K271" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L271" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G271" t="b">
+        <v>1</v>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I271" t="b">
+        <v>1</v>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K271" t="b">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -15530,156 +15530,156 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="n">
+      <c r="A291" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B291" t="inlineStr">
+      <c r="B291" s="2" t="inlineStr">
         <is>
           <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
-      <c r="C291" t="inlineStr">
+      <c r="C291" s="2" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D291" t="n">
+      <c r="D291" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E291" t="inlineStr">
+      <c r="E291" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F291" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G291" t="b">
-        <v>1</v>
-      </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I291" t="b">
-        <v>1</v>
-      </c>
-      <c r="J291" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K291" t="b">
-        <v>1</v>
-      </c>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F291" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G291" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H291" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I291" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J291" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K291" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L291" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="n">
+      <c r="A292" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B292" t="inlineStr">
+      <c r="B292" s="2" t="inlineStr">
         <is>
           <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
-      <c r="C292" t="inlineStr">
+      <c r="C292" s="2" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D292" t="n">
+      <c r="D292" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E292" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F292" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G292" t="b">
-        <v>1</v>
-      </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I292" t="b">
-        <v>1</v>
-      </c>
-      <c r="J292" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K292" t="b">
-        <v>1</v>
-      </c>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E292" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F292" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G292" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H292" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I292" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J292" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K292" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L292" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="n">
+      <c r="A293" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B293" t="inlineStr">
+      <c r="B293" s="2" t="inlineStr">
         <is>
           <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
-      <c r="C293" t="inlineStr">
+      <c r="C293" s="2" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D293" t="n">
+      <c r="D293" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E293" t="inlineStr">
+      <c r="E293" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F293" t="inlineStr">
+      <c r="F293" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G293" t="b">
-        <v>1</v>
-      </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I293" t="b">
-        <v>1</v>
-      </c>
-      <c r="J293" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K293" t="b">
-        <v>1</v>
-      </c>
-      <c r="L293" t="inlineStr">
+      <c r="G293" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H293" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I293" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J293" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K293" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L293" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem4/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem4/123/word_level_predictions_123.xlsx
@@ -2062,780 +2062,780 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="A32" t="n">
         <v>2</v>
       </c>
-      <c r="B32" s="2" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C32" s="2" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D32" s="2" t="n">
+      <c r="D32" t="n">
         <v>12</v>
       </c>
-      <c r="E32" s="2" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L32" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="A33" t="n">
         <v>2</v>
       </c>
-      <c r="B33" s="2" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C33" s="2" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>can</t>
         </is>
       </c>
-      <c r="D33" s="2" t="n">
+      <c r="D33" t="n">
         <v>13</v>
       </c>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F33" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G33" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I33" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L33" s="2" t="inlineStr">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="A34" t="n">
         <v>2</v>
       </c>
-      <c r="B34" s="2" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C34" s="2" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>reset</t>
         </is>
       </c>
-      <c r="D34" s="2" t="n">
+      <c r="D34" t="n">
         <v>14</v>
       </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F34" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G34" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I34" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L34" s="2" t="inlineStr">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="A35" t="n">
         <v>2</v>
       </c>
-      <c r="B35" s="2" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C35" s="2" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D35" s="2" t="n">
+      <c r="D35" t="n">
         <v>15</v>
       </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F35" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G35" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I35" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L35" s="2" t="inlineStr">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="A36" t="n">
         <v>2</v>
       </c>
-      <c r="B36" s="2" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C36" s="2" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D36" s="2" t="n">
+      <c r="D36" t="n">
         <v>16</v>
       </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F36" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G36" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L36" s="2" t="inlineStr">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
+      <c r="A37" t="n">
         <v>2</v>
       </c>
-      <c r="B37" s="2" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C37" s="2" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D37" s="2" t="n">
+      <c r="D37" t="n">
         <v>17</v>
       </c>
-      <c r="E37" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F37" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G37" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I37" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L37" s="2" t="inlineStr">
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K37" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" t="n">
         <v>2</v>
       </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D38" s="2" t="n">
+      <c r="D38" t="n">
         <v>18</v>
       </c>
-      <c r="E38" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F38" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G38" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L38" s="2" t="inlineStr">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" t="n">
         <v>2</v>
       </c>
-      <c r="B39" s="2" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Remote</t>
         </is>
       </c>
-      <c r="D39" s="2" t="n">
+      <c r="D39" t="n">
         <v>19</v>
       </c>
-      <c r="E39" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F39" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G39" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L39" s="2" t="inlineStr">
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="A40" t="n">
         <v>2</v>
       </c>
-      <c r="B40" s="2" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C40" s="2" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>Controller</t>
         </is>
       </c>
-      <c r="D40" s="2" t="n">
+      <c r="D40" t="n">
         <v>20</v>
       </c>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F40" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G40" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I40" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L40" s="2" t="inlineStr">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" t="n">
         <v>2</v>
       </c>
-      <c r="B41" s="2" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C41" s="2" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D41" s="2" t="n">
+      <c r="D41" t="n">
         <v>21</v>
       </c>
-      <c r="E41" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L41" s="2" t="inlineStr">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" t="n">
         <v>2</v>
       </c>
-      <c r="B42" s="2" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C42" s="2" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>after</t>
         </is>
       </c>
-      <c r="D42" s="2" t="n">
+      <c r="D42" t="n">
         <v>22</v>
       </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L42" s="2" t="inlineStr">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" t="n">
         <v>2</v>
       </c>
-      <c r="B43" s="2" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C43" s="2" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>cancelling</t>
         </is>
       </c>
-      <c r="D43" s="2" t="n">
+      <c r="D43" t="n">
         <v>23</v>
       </c>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2" t="inlineStr">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" t="n">
         <v>2</v>
       </c>
-      <c r="B44" s="2" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C44" s="2" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D44" s="2" t="n">
+      <c r="D44" t="n">
         <v>24</v>
       </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F44" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2" t="inlineStr">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="A45" t="n">
         <v>2</v>
       </c>
-      <c r="B45" s="2" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C45" s="2" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>if</t>
         </is>
       </c>
-      <c r="D45" s="2" t="n">
+      <c r="D45" t="n">
         <v>25</v>
       </c>
-      <c r="E45" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F45" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G45" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L45" s="2" t="inlineStr">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" t="n">
         <v>2</v>
       </c>
-      <c r="B46" s="2" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C46" s="2" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>necessary</t>
         </is>
       </c>
-      <c r="D46" s="2" t="n">
+      <c r="D46" t="n">
         <v>26</v>
       </c>
-      <c r="E46" s="2" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G46" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L46" s="2" t="inlineStr">
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3570,104 +3570,104 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
+      <c r="A61" t="n">
         <v>4</v>
       </c>
-      <c r="B61" s="2" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C61" s="2" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D61" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" s="2" t="inlineStr">
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F61" s="2" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G61" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" s="2" t="inlineStr">
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L61" s="2" t="inlineStr">
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
+      <c r="A62" t="n">
         <v>4</v>
       </c>
-      <c r="B62" s="2" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C62" s="2" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>Stuck</t>
         </is>
       </c>
-      <c r="D62" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" s="2" t="inlineStr">
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F62" s="2" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G62" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" s="2" t="inlineStr">
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I62" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K62" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L62" s="2" t="inlineStr">
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K62" t="b">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -3709,11 +3709,11 @@
         </is>
       </c>
       <c r="I63" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K63" s="2" t="b">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G64" s="2" t="b">
@@ -3761,11 +3761,11 @@
         </is>
       </c>
       <c r="I64" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K64" s="2" t="b">
@@ -3778,312 +3778,312 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
+      <c r="A65" t="n">
         <v>4</v>
       </c>
-      <c r="B65" s="2" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C65" s="2" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D65" s="2" t="n">
+      <c r="D65" t="n">
         <v>4</v>
       </c>
-      <c r="E65" s="2" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F65" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G65" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I65" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K65" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L65" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I65" t="b">
+        <v>1</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K65" t="b">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
+      <c r="A66" t="n">
         <v>4</v>
       </c>
-      <c r="B66" s="2" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C66" s="2" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D66" s="2" t="n">
+      <c r="D66" t="n">
         <v>5</v>
       </c>
-      <c r="E66" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F66" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G66" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I66" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K66" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L66" s="2" t="inlineStr">
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I66" t="b">
+        <v>1</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K66" t="b">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
+      <c r="A67" t="n">
         <v>4</v>
       </c>
-      <c r="B67" s="2" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C67" s="2" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D67" s="2" t="n">
+      <c r="D67" t="n">
         <v>6</v>
       </c>
-      <c r="E67" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F67" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G67" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I67" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K67" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L67" s="2" t="inlineStr">
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K67" t="b">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
+      <c r="A68" t="n">
         <v>4</v>
       </c>
-      <c r="B68" s="2" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C68" s="2" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>if</t>
         </is>
       </c>
-      <c r="D68" s="2" t="n">
+      <c r="D68" t="n">
         <v>7</v>
       </c>
-      <c r="E68" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F68" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G68" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L68" s="2" t="inlineStr">
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I68" t="b">
+        <v>1</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K68" t="b">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
+      <c r="A69" t="n">
         <v>4</v>
       </c>
-      <c r="B69" s="2" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C69" s="2" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D69" s="2" t="n">
+      <c r="D69" t="n">
         <v>8</v>
       </c>
-      <c r="E69" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F69" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G69" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L69" s="2" t="inlineStr">
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I69" t="b">
+        <v>1</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K69" t="b">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
+      <c r="A70" t="n">
         <v>4</v>
       </c>
-      <c r="B70" s="2" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C70" s="2" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>persists</t>
         </is>
       </c>
-      <c r="D70" s="2" t="n">
+      <c r="D70" t="n">
         <v>9</v>
       </c>
-      <c r="E70" s="2" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F70" s="2" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G70" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L70" s="2" t="inlineStr">
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I70" t="b">
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K70" t="b">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="F81" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G81" s="2" t="b">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -5465,7 +5465,7 @@
       </c>
       <c r="F97" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G97" s="2" t="b">
@@ -5489,7 +5489,7 @@
       </c>
       <c r="L97" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="F98" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G98" s="2" t="b">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="L98" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6898,156 +6898,156 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
+      <c r="A125" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C125" s="2" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D125" t="n">
+      <c r="D125" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="E125" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G125" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I125" t="b">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K125" t="b">
-        <v>1</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F125" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G125" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
+      <c r="A126" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B126" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C126" s="2" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D126" t="n">
+      <c r="D126" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G126" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I126" t="b">
-        <v>1</v>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K126" t="b">
-        <v>1</v>
-      </c>
-      <c r="L126" t="inlineStr">
+      <c r="E126" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F126" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G126" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I126" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J126" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K126" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L126" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
+      <c r="A127" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B127" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C127" s="2" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D127" t="n">
+      <c r="D127" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="E127" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="F127" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G127" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I127" t="b">
-        <v>1</v>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K127" t="b">
-        <v>1</v>
-      </c>
-      <c r="L127" t="inlineStr">
+      <c r="G127" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I127" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J127" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K127" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L127" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7314,782 +7314,782 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n">
+      <c r="A133" t="n">
         <v>9</v>
       </c>
-      <c r="B133" s="2" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C133" s="2" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D133" s="2" t="n">
+      <c r="D133" t="n">
         <v>4</v>
       </c>
-      <c r="E133" s="2" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F133" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G133" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J133" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L133" s="2" t="inlineStr">
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G133" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I133" t="b">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K133" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>9</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>5</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G134" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I134" t="b">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K134" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>9</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>USB</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>6</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G135" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I135" t="b">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>9</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>connection</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>7</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G136" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I136" t="b">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>9</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>8</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G137" t="b">
+        <v>1</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I137" t="b">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K137" t="b">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>9</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>aircraft</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>9</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G138" t="b">
+        <v>1</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I138" t="b">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K138" t="b">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>9</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>10</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G139" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I139" t="b">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K139" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
+    <row r="140">
+      <c r="A140" t="n">
         <v>9</v>
       </c>
-      <c r="B134" s="2" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C134" s="2" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D134" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E134" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F134" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G134" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J134" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L134" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>11</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G140" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I140" t="b">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
         <v>9</v>
       </c>
-      <c r="B135" s="2" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C135" s="2" t="inlineStr">
-        <is>
-          <t>USB</t>
-        </is>
-      </c>
-      <c r="D135" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E135" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F135" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G135" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J135" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L135" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Support</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>12</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G141" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I141" t="b">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
         <v>9</v>
       </c>
-      <c r="B136" s="2" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C136" s="2" t="inlineStr">
-        <is>
-          <t>connection</t>
-        </is>
-      </c>
-      <c r="D136" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E136" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F136" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G136" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J136" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L136" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>if</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>13</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G142" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" t="b">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K142" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
         <v>9</v>
       </c>
-      <c r="B137" s="2" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C137" s="2" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="D137" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E137" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F137" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G137" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H137" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I137" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J137" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K137" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L137" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>this</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>14</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" t="b">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
         <v>9</v>
       </c>
-      <c r="B138" s="2" t="inlineStr">
+      <c r="B144" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C138" s="2" t="inlineStr">
-        <is>
-          <t>aircraft</t>
-        </is>
-      </c>
-      <c r="D138" s="2" t="n">
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>15</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G144" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I144" t="b">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K144" t="b">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
         <v>9</v>
       </c>
-      <c r="E138" s="2" t="inlineStr">
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>persists</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>16</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G145" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I145" t="b">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K145" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>9</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>17</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G146" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I146" t="b">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K146" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>9</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>restarting</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>18</v>
+      </c>
+      <c r="E147" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F138" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G138" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H138" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I138" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J138" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K138" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L138" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B139" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C139" s="2" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="D139" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E139" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F139" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G139" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H139" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J139" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L139" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B140" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C140" s="2" t="inlineStr">
-        <is>
-          <t>DJI</t>
-        </is>
-      </c>
-      <c r="D140" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E140" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F140" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G140" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J140" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L140" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B141" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C141" s="2" t="inlineStr">
-        <is>
-          <t>Support</t>
-        </is>
-      </c>
-      <c r="D141" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E141" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F141" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G141" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J141" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L141" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B142" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C142" s="2" t="inlineStr">
-        <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="D142" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E142" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F142" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G142" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J142" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L142" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B143" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C143" s="2" t="inlineStr">
-        <is>
-          <t>this</t>
-        </is>
-      </c>
-      <c r="D143" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="E143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J143" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L143" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B144" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C144" s="2" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="D144" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E144" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F144" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G144" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H144" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J144" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L144" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B145" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C145" s="2" t="inlineStr">
-        <is>
-          <t>persists</t>
-        </is>
-      </c>
-      <c r="D145" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E145" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F145" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G145" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J145" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L145" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B146" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C146" s="2" t="inlineStr">
-        <is>
-          <t>after</t>
-        </is>
-      </c>
-      <c r="D146" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="E146" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F146" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G146" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H146" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J146" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L146" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B147" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C147" s="2" t="inlineStr">
-        <is>
-          <t>restarting</t>
-        </is>
-      </c>
-      <c r="D147" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="E147" s="2" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F147" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G147" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J147" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L147" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="G147" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I147" t="b">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10457,7 +10457,7 @@
       </c>
       <c r="F193" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G193" s="2" t="b">
@@ -10481,7 +10481,7 @@
       </c>
       <c r="L193" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="F194" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G194" s="2" t="b">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="L194" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10746,364 +10746,364 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n">
+      <c r="A199" t="n">
         <v>12</v>
       </c>
-      <c r="B199" s="2" t="inlineStr">
+      <c r="B199" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C199" s="2" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>Ensure</t>
         </is>
       </c>
-      <c r="D199" s="2" t="n">
+      <c r="D199" t="n">
         <v>10</v>
       </c>
-      <c r="E199" s="2" t="inlineStr">
+      <c r="E199" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F199" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G199" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L199" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G199" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I199" t="b">
+        <v>1</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K199" t="b">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="2" t="n">
+      <c r="A200" t="n">
         <v>12</v>
       </c>
-      <c r="B200" s="2" t="inlineStr">
+      <c r="B200" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C200" s="2" t="inlineStr">
+      <c r="C200" t="inlineStr">
         <is>
           <t>you</t>
         </is>
       </c>
-      <c r="D200" s="2" t="n">
+      <c r="D200" t="n">
         <v>11</v>
       </c>
-      <c r="E200" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F200" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G200" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H200" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I200" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J200" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K200" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L200" s="2" t="inlineStr">
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G200" t="b">
+        <v>1</v>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I200" t="b">
+        <v>1</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K200" t="b">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="2" t="n">
+      <c r="A201" t="n">
         <v>12</v>
       </c>
-      <c r="B201" s="2" t="inlineStr">
+      <c r="B201" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C201" s="2" t="inlineStr">
+      <c r="C201" t="inlineStr">
         <is>
           <t>have</t>
         </is>
       </c>
-      <c r="D201" s="2" t="n">
+      <c r="D201" t="n">
         <v>12</v>
       </c>
-      <c r="E201" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F201" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G201" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H201" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I201" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J201" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K201" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L201" s="2" t="inlineStr">
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G201" t="b">
+        <v>1</v>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I201" t="b">
+        <v>1</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K201" t="b">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="2" t="n">
+      <c r="A202" t="n">
         <v>12</v>
       </c>
-      <c r="B202" s="2" t="inlineStr">
+      <c r="B202" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C202" s="2" t="inlineStr">
+      <c r="C202" t="inlineStr">
         <is>
           <t>obtained</t>
         </is>
       </c>
-      <c r="D202" s="2" t="n">
+      <c r="D202" t="n">
         <v>13</v>
       </c>
-      <c r="E202" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F202" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G202" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H202" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I202" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J202" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K202" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L202" s="2" t="inlineStr">
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G202" t="b">
+        <v>1</v>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I202" t="b">
+        <v>1</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K202" t="b">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="2" t="n">
+      <c r="A203" t="n">
         <v>12</v>
       </c>
-      <c r="B203" s="2" t="inlineStr">
+      <c r="B203" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C203" s="2" t="inlineStr">
+      <c r="C203" t="inlineStr">
         <is>
           <t>proper</t>
         </is>
       </c>
-      <c r="D203" s="2" t="n">
+      <c r="D203" t="n">
         <v>14</v>
       </c>
-      <c r="E203" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F203" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G203" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I203" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J203" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K203" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L203" s="2" t="inlineStr">
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G203" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I203" t="b">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K203" t="b">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="2" t="n">
+      <c r="A204" t="n">
         <v>12</v>
       </c>
-      <c r="B204" s="2" t="inlineStr">
+      <c r="B204" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C204" s="2" t="inlineStr">
+      <c r="C204" t="inlineStr">
         <is>
           <t>airspace</t>
         </is>
       </c>
-      <c r="D204" s="2" t="n">
+      <c r="D204" t="n">
         <v>15</v>
       </c>
-      <c r="E204" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F204" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L204" s="2" t="inlineStr">
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G204" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I204" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K204" t="b">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="n">
+      <c r="A205" t="n">
         <v>12</v>
       </c>
-      <c r="B205" s="2" t="inlineStr">
+      <c r="B205" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C205" s="2" t="inlineStr">
+      <c r="C205" t="inlineStr">
         <is>
           <t>authorization</t>
         </is>
       </c>
-      <c r="D205" s="2" t="n">
+      <c r="D205" t="n">
         <v>16</v>
       </c>
-      <c r="E205" s="2" t="inlineStr">
+      <c r="E205" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F205" s="2" t="inlineStr">
+      <c r="F205" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G205" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L205" s="2" t="inlineStr">
+      <c r="G205" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I205" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K205" t="b">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12514,364 +12514,364 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="n">
+      <c r="A233" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B233" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
+      <c r="C233" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D233" t="n">
-        <v>0</v>
-      </c>
-      <c r="E233" t="inlineStr">
+      <c r="D233" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E233" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
+      <c r="F233" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G233" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" t="inlineStr">
+      <c r="G233" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I233" t="b">
-        <v>1</v>
-      </c>
-      <c r="J233" t="inlineStr">
+      <c r="I233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J233" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L233" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B234" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C234" s="2" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="D234" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E234" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F234" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K233" t="b">
-        <v>1</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
+      <c r="I234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J234" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L234" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B235" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="D234" t="n">
-        <v>1</v>
-      </c>
-      <c r="E234" t="inlineStr">
+      <c r="C235" s="2" t="inlineStr">
+        <is>
+          <t>Attitude</t>
+        </is>
+      </c>
+      <c r="D235" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E235" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
+      <c r="F235" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G234" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" t="inlineStr">
+      <c r="G235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I234" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" t="inlineStr">
+      <c r="I235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J235" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L235" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B236" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>mode</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E236" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F236" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K234" t="b">
-        <v>1</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
+      <c r="I236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B235" t="inlineStr">
+      <c r="B237" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>Attitude</t>
-        </is>
-      </c>
-      <c r="D235" t="n">
-        <v>2</v>
-      </c>
-      <c r="E235" t="inlineStr">
+      <c r="C237" s="2" t="inlineStr">
+        <is>
+          <t>Unable</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E237" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F237" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B238" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E238" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
+      <c r="F238" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
+      <c r="I238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J238" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B239" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C239" s="2" t="inlineStr">
+        <is>
+          <t>hover</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E239" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F239" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
-        <v>15</v>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>mode</t>
-        </is>
-      </c>
-      <c r="D236" t="n">
-        <v>3</v>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
-        <v>15</v>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Unable</t>
-        </is>
-      </c>
-      <c r="D237" t="n">
-        <v>4</v>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>15</v>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D238" t="n">
-        <v>5</v>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G238" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I238" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K238" t="b">
-        <v>1</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>15</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>hover</t>
-        </is>
-      </c>
-      <c r="D239" t="n">
-        <v>6</v>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G239" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I239" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K239" t="b">
-        <v>1</v>
-      </c>
-      <c r="L239" t="inlineStr">
+      <c r="I239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J239" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -12913,11 +12913,11 @@
         </is>
       </c>
       <c r="I240" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J240" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K240" s="2" t="b">
@@ -12965,11 +12965,11 @@
         </is>
       </c>
       <c r="I241" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J241" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K241" s="2" t="b">
@@ -13005,7 +13005,7 @@
       </c>
       <c r="F242" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G242" s="2" t="b">
@@ -13017,11 +13017,11 @@
         </is>
       </c>
       <c r="I242" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J242" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K242" s="2" t="b">
@@ -13029,7 +13029,7 @@
       </c>
       <c r="L242" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13265,7 +13265,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G247" t="b">
@@ -13289,7 +13289,7 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13329,11 +13329,11 @@
         </is>
       </c>
       <c r="I248" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J248" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K248" s="2" t="b">
@@ -13381,11 +13381,11 @@
         </is>
       </c>
       <c r="I249" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J249" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K249" s="2" t="b">
@@ -13433,11 +13433,11 @@
         </is>
       </c>
       <c r="I250" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J250" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K250" s="2" t="b">
@@ -13473,7 +13473,7 @@
       </c>
       <c r="F251" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G251" s="2" t="b">
@@ -13485,11 +13485,11 @@
         </is>
       </c>
       <c r="I251" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J251" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K251" s="2" t="b">
@@ -13497,7 +13497,7 @@
       </c>
       <c r="L251" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13525,7 +13525,7 @@
       </c>
       <c r="F252" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G252" s="2" t="b">
@@ -13537,11 +13537,11 @@
         </is>
       </c>
       <c r="I252" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J252" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K252" s="2" t="b">
@@ -13549,7 +13549,7 @@
       </c>
       <c r="L252" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="F253" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G253" s="2" t="b">
@@ -13589,11 +13589,11 @@
         </is>
       </c>
       <c r="I253" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J253" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K253" s="2" t="b">
@@ -13601,7 +13601,7 @@
       </c>
       <c r="L253" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="F254" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G254" s="2" t="b">
@@ -13641,11 +13641,11 @@
         </is>
       </c>
       <c r="I254" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J254" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K254" s="2" t="b">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="L254" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13681,7 +13681,7 @@
       </c>
       <c r="F255" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G255" s="2" t="b">
@@ -13693,11 +13693,11 @@
         </is>
       </c>
       <c r="I255" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J255" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K255" s="2" t="b">
@@ -13705,7 +13705,7 @@
       </c>
       <c r="L255" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="F256" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G256" s="2" t="b">
@@ -13745,11 +13745,11 @@
         </is>
       </c>
       <c r="I256" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J256" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K256" s="2" t="b">
@@ -13757,7 +13757,7 @@
       </c>
       <c r="L256" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13797,11 +13797,11 @@
         </is>
       </c>
       <c r="I257" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J257" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K257" s="2" t="b">
@@ -13814,730 +13814,730 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="n">
+      <c r="A258" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B258" t="inlineStr">
+      <c r="B258" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C258" t="inlineStr">
+      <c r="C258" s="2" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D258" t="n">
+      <c r="D258" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E258" t="inlineStr">
+      <c r="E258" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F258" t="inlineStr">
+      <c r="F258" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G258" t="b">
-        <v>1</v>
-      </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I258" t="b">
-        <v>1</v>
-      </c>
-      <c r="J258" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K258" t="b">
-        <v>1</v>
-      </c>
-      <c r="L258" t="inlineStr">
+      <c r="G258" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H258" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I258" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J258" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K258" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L258" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="n">
+      <c r="A259" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B259" t="inlineStr">
+      <c r="B259" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C259" t="inlineStr">
+      <c r="C259" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D259" t="n">
+      <c r="D259" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G259" t="b">
-        <v>1</v>
-      </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I259" t="b">
-        <v>1</v>
-      </c>
-      <c r="J259" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K259" t="b">
-        <v>1</v>
-      </c>
-      <c r="L259" t="inlineStr">
+      <c r="E259" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F259" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G259" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H259" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I259" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J259" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K259" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L259" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="n">
+      <c r="A260" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B260" t="inlineStr">
+      <c r="B260" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C260" t="inlineStr">
+      <c r="C260" s="2" t="inlineStr">
         <is>
           <t>make</t>
         </is>
       </c>
-      <c r="D260" t="n">
+      <c r="D260" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G260" t="b">
-        <v>1</v>
-      </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I260" t="b">
-        <v>1</v>
-      </c>
-      <c r="J260" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K260" t="b">
-        <v>1</v>
-      </c>
-      <c r="L260" t="inlineStr">
+      <c r="E260" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F260" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G260" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H260" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I260" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J260" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K260" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L260" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="n">
+      <c r="A261" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B261" t="inlineStr">
+      <c r="B261" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C261" t="inlineStr">
+      <c r="C261" s="2" t="inlineStr">
         <is>
           <t>sure</t>
         </is>
       </c>
-      <c r="D261" t="n">
+      <c r="D261" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G261" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I261" t="b">
-        <v>1</v>
-      </c>
-      <c r="J261" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K261" t="b">
-        <v>1</v>
-      </c>
-      <c r="L261" t="inlineStr">
+      <c r="E261" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F261" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G261" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H261" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I261" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J261" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K261" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L261" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="n">
+      <c r="A262" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B262" t="inlineStr">
+      <c r="B262" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C262" t="inlineStr">
+      <c r="C262" s="2" t="inlineStr">
         <is>
           <t>you</t>
         </is>
       </c>
-      <c r="D262" t="n">
+      <c r="D262" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G262" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I262" t="b">
-        <v>1</v>
-      </c>
-      <c r="J262" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K262" t="b">
-        <v>1</v>
-      </c>
-      <c r="L262" t="inlineStr">
+      <c r="E262" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F262" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G262" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H262" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I262" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J262" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K262" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L262" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="n">
+      <c r="A263" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B263" t="inlineStr">
+      <c r="B263" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C263" t="inlineStr">
+      <c r="C263" s="2" t="inlineStr">
         <is>
           <t>have</t>
         </is>
       </c>
-      <c r="D263" t="n">
+      <c r="D263" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G263" t="b">
-        <v>1</v>
-      </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I263" t="b">
-        <v>1</v>
-      </c>
-      <c r="J263" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K263" t="b">
-        <v>1</v>
-      </c>
-      <c r="L263" t="inlineStr">
+      <c r="E263" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F263" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G263" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H263" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I263" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J263" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K263" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L263" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="n">
+      <c r="A264" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B264" t="inlineStr">
+      <c r="B264" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C264" t="inlineStr">
+      <c r="C264" s="2" t="inlineStr">
         <is>
           <t>obtained</t>
         </is>
       </c>
-      <c r="D264" t="n">
+      <c r="D264" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G264" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I264" t="b">
-        <v>1</v>
-      </c>
-      <c r="J264" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K264" t="b">
-        <v>1</v>
-      </c>
-      <c r="L264" t="inlineStr">
+      <c r="E264" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F264" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G264" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I264" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J264" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K264" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L264" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="n">
+      <c r="A265" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B265" t="inlineStr">
+      <c r="B265" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C265" t="inlineStr">
+      <c r="C265" s="2" t="inlineStr">
         <is>
           <t>proper</t>
         </is>
       </c>
-      <c r="D265" t="n">
+      <c r="D265" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G265" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I265" t="b">
-        <v>1</v>
-      </c>
-      <c r="J265" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K265" t="b">
-        <v>1</v>
-      </c>
-      <c r="L265" t="inlineStr">
+      <c r="E265" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F265" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G265" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I265" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J265" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K265" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L265" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="n">
+      <c r="A266" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B266" t="inlineStr">
+      <c r="B266" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C266" t="inlineStr">
+      <c r="C266" s="2" t="inlineStr">
         <is>
           <t>authorization</t>
         </is>
       </c>
-      <c r="D266" t="n">
+      <c r="D266" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G266" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I266" t="b">
-        <v>1</v>
-      </c>
-      <c r="J266" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K266" t="b">
-        <v>1</v>
-      </c>
-      <c r="L266" t="inlineStr">
+      <c r="E266" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F266" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G266" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I266" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J266" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K266" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L266" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="n">
+      <c r="A267" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B267" t="inlineStr">
+      <c r="B267" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C267" t="inlineStr">
+      <c r="C267" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D267" t="n">
+      <c r="D267" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G267" t="b">
-        <v>1</v>
-      </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I267" t="b">
-        <v>1</v>
-      </c>
-      <c r="J267" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K267" t="b">
-        <v>1</v>
-      </c>
-      <c r="L267" t="inlineStr">
+      <c r="E267" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F267" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G267" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H267" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I267" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J267" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K267" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L267" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="n">
+      <c r="A268" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B268" t="inlineStr">
+      <c r="B268" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C268" t="inlineStr">
+      <c r="C268" s="2" t="inlineStr">
         <is>
           <t>fly</t>
         </is>
       </c>
-      <c r="D268" t="n">
+      <c r="D268" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G268" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I268" t="b">
-        <v>1</v>
-      </c>
-      <c r="J268" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K268" t="b">
-        <v>1</v>
-      </c>
-      <c r="L268" t="inlineStr">
+      <c r="E268" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F268" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G268" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I268" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J268" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K268" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L268" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="n">
+      <c r="A269" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B269" t="inlineStr">
+      <c r="B269" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C269" t="inlineStr">
+      <c r="C269" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D269" t="n">
+      <c r="D269" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G269" t="b">
-        <v>1</v>
-      </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I269" t="b">
-        <v>1</v>
-      </c>
-      <c r="J269" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K269" t="b">
-        <v>1</v>
-      </c>
-      <c r="L269" t="inlineStr">
+      <c r="E269" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F269" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G269" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H269" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I269" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J269" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K269" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L269" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="n">
+      <c r="A270" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B270" t="inlineStr">
+      <c r="B270" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C270" t="inlineStr">
+      <c r="C270" s="2" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D270" t="n">
+      <c r="D270" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G270" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I270" t="b">
-        <v>1</v>
-      </c>
-      <c r="J270" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K270" t="b">
-        <v>1</v>
-      </c>
-      <c r="L270" t="inlineStr">
+      <c r="E270" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F270" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G270" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I270" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J270" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K270" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L270" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="n">
+      <c r="A271" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B271" t="inlineStr">
+      <c r="B271" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C271" t="inlineStr">
+      <c r="C271" s="2" t="inlineStr">
         <is>
           <t>airspace</t>
         </is>
       </c>
-      <c r="D271" t="n">
+      <c r="D271" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="E271" t="inlineStr">
+      <c r="E271" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G271" t="b">
-        <v>1</v>
-      </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I271" t="b">
-        <v>1</v>
-      </c>
-      <c r="J271" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K271" t="b">
-        <v>1</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F271" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G271" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H271" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I271" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J271" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K271" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L271" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -15530,156 +15530,156 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="2" t="n">
+      <c r="A291" t="n">
         <v>18</v>
       </c>
-      <c r="B291" s="2" t="inlineStr">
+      <c r="B291" t="inlineStr">
         <is>
           <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
-      <c r="C291" s="2" t="inlineStr">
+      <c r="C291" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D291" s="2" t="n">
+      <c r="D291" t="n">
         <v>5</v>
       </c>
-      <c r="E291" s="2" t="inlineStr">
+      <c r="E291" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F291" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G291" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H291" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I291" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J291" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K291" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L291" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G291" t="b">
+        <v>1</v>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I291" t="b">
+        <v>1</v>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K291" t="b">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="2" t="n">
+      <c r="A292" t="n">
         <v>18</v>
       </c>
-      <c r="B292" s="2" t="inlineStr">
+      <c r="B292" t="inlineStr">
         <is>
           <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
-      <c r="C292" s="2" t="inlineStr">
+      <c r="C292" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D292" s="2" t="n">
+      <c r="D292" t="n">
         <v>6</v>
       </c>
-      <c r="E292" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F292" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G292" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H292" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I292" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J292" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K292" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L292" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G292" t="b">
+        <v>1</v>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I292" t="b">
+        <v>1</v>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K292" t="b">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="2" t="n">
+      <c r="A293" t="n">
         <v>18</v>
       </c>
-      <c r="B293" s="2" t="inlineStr">
+      <c r="B293" t="inlineStr">
         <is>
           <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
-      <c r="C293" s="2" t="inlineStr">
+      <c r="C293" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D293" s="2" t="n">
+      <c r="D293" t="n">
         <v>7</v>
       </c>
-      <c r="E293" s="2" t="inlineStr">
+      <c r="E293" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F293" s="2" t="inlineStr">
+      <c r="F293" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G293" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H293" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I293" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J293" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K293" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L293" s="2" t="inlineStr">
+      <c r="G293" t="b">
+        <v>1</v>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I293" t="b">
+        <v>1</v>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K293" t="b">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
